--- a/test cases/messenger/case 10/caller_ipv4.xlsx
+++ b/test cases/messenger/case 10/caller_ipv4.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\WebRTC_Testbench\test cases\Messenger\case 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3AC1C31E-C9BB-454D-80AE-10DEA923A184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D3043-55D4-4FCF-821C-A04005FC1E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="caller_ipv4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">caller_ipv4!$A$1:$Q$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">caller_ipv4!$A$1:$T$49</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="95">
   <si>
     <t>Address A</t>
   </si>
@@ -191,12 +191,133 @@
   <si>
     <t>157.240.245.17</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>48 IP addresses.</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 17.57.147.6</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.1</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.251</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.140</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.15</t>
+  </si>
+  <si>
+    <t>Not found: 10.75.226.255</t>
+  </si>
+  <si>
+    <t>Not found: 192.0.0.6</t>
+  </si>
+  <si>
+    <t>Not found: 169.254.44.121</t>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.236</t>
+  </si>
+  <si>
+    <t>Not found: 169.254.100.1</t>
+  </si>
+  <si>
+    <t>Not found: 169.254.205.247</t>
+  </si>
+  <si>
+    <t>Not found: 0.0.0.0</t>
+  </si>
+  <si>
+    <t>10.0.0.140</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not found: 10.0.0.255</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.241.53</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.22</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.56</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.58</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 31.13.71.128</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.22.19</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.22.33</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.12</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.245.17</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 157.240.254.12</t>
+  </si>
+  <si>
+    <t>FACEBOOK: 31.13.66.4</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 17.167.200.70</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 17.248.185.6</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 17.57.144.12</t>
+  </si>
+  <si>
+    <t>APPLE-ENGINEERING: 17.57.147.4</t>
+  </si>
+  <si>
+    <t>Not found: 172.26.38.2</t>
+  </si>
+  <si>
+    <t>Not found: 192.168.0.20</t>
+  </si>
+  <si>
+    <t>Not found: 224.0.0.251</t>
+  </si>
+  <si>
+    <t>Not found: 239.255.255.250</t>
+  </si>
+  <si>
+    <t>Not found: 255.255.255.255</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK: 40.99.245.66</t>
+  </si>
+  <si>
+    <t>Tencent Building, Kejizhongyi Avenue: 49.51.67.253</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK: 52.96.121.210</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK: 52.96.191.98</t>
+  </si>
+  <si>
+    <t>COMCAST-7922: 73.16.29.250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -844,7 +965,15 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1162,13 +1291,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1306,7 @@
     <col min="3" max="3" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1358,14 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1238,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1282,8 +1417,14 @@
       <c r="Q2">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1329,8 +1470,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1376,8 +1523,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1429,8 +1582,14 @@
       <c r="Q5">
         <v>16764</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1482,8 +1641,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1529,8 +1694,14 @@
       <c r="O7" s="2">
         <v>1.32299999999929E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1582,8 +1753,14 @@
       <c r="Q8" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1629,8 +1806,14 @@
       <c r="O9" s="2">
         <v>9.75000000000392E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1682,8 +1865,14 @@
       <c r="Q10" s="2">
         <v>41774</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1729,8 +1918,14 @@
       <c r="O11" s="2">
         <v>1.49400000000099E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1782,8 +1977,14 @@
       <c r="Q12" s="2">
         <v>18157</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1835,8 +2036,14 @@
       <c r="Q13" s="2">
         <v>6167</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1888,8 +2095,14 @@
       <c r="Q14" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1941,8 +2154,14 @@
       <c r="Q15" s="2">
         <v>2205885</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2213,14 @@
       <c r="Q16" s="2">
         <v>5225</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -2047,8 +2272,14 @@
       <c r="Q17" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2100,8 +2331,14 @@
       <c r="Q18" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2153,8 +2390,14 @@
       <c r="Q19" s="2">
         <v>2969</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -2206,8 +2449,14 @@
       <c r="Q20" s="2">
         <v>14453</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2508,14 @@
       <c r="Q21" s="2">
         <v>26533</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2312,8 +2567,14 @@
       <c r="Q22" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2365,8 +2626,14 @@
       <c r="Q23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2418,8 +2685,14 @@
       <c r="Q24">
         <v>31825</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2471,8 +2744,14 @@
       <c r="Q25">
         <v>34435</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S25" t="s">
+        <v>61</v>
+      </c>
+      <c r="T25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -2524,8 +2803,14 @@
       <c r="Q26">
         <v>11595</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S26" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2862,14 @@
       <c r="Q27">
         <v>1706</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>61</v>
+      </c>
+      <c r="T27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2624,8 +2915,14 @@
       <c r="O28">
         <v>3.7400000000076201E-4</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>61</v>
+      </c>
+      <c r="T28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2677,8 +2974,14 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2730,8 +3033,14 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>59</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -2783,8 +3092,14 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>63</v>
+      </c>
+      <c r="T31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2830,8 +3145,14 @@
       <c r="O32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -2883,8 +3204,14 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>60</v>
+      </c>
+      <c r="T33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2936,8 +3263,14 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>65</v>
+      </c>
+      <c r="T34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2983,8 +3316,14 @@
       <c r="O35">
         <v>1.3450000000005901E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>57</v>
+      </c>
+      <c r="T35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -3036,8 +3375,14 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>66</v>
+      </c>
+      <c r="T36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3089,8 +3434,14 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>64</v>
+      </c>
+      <c r="T37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -3142,8 +3493,14 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>67</v>
+      </c>
+      <c r="T38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>23</v>
       </c>
@@ -3195,8 +3552,14 @@
       <c r="Q39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>23</v>
       </c>
@@ -3248,8 +3611,14 @@
       <c r="Q40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>23</v>
       </c>
@@ -3301,8 +3670,14 @@
       <c r="Q41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -3354,8 +3729,14 @@
       <c r="Q42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3407,8 +3788,14 @@
       <c r="Q43">
         <v>60247</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S43" t="s">
+        <v>61</v>
+      </c>
+      <c r="T43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -3460,8 +3847,14 @@
       <c r="Q44">
         <v>4448</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S44" t="s">
+        <v>59</v>
+      </c>
+      <c r="T44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -3513,8 +3906,14 @@
       <c r="Q45">
         <v>51184</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S45" t="s">
+        <v>61</v>
+      </c>
+      <c r="T45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -3566,8 +3965,14 @@
       <c r="Q46">
         <v>9848</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>61</v>
+      </c>
+      <c r="T46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -3619,8 +4024,14 @@
       <c r="Q47">
         <v>162</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S47" t="s">
+        <v>59</v>
+      </c>
+      <c r="T47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -3672,8 +4083,14 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S48" t="s">
+        <v>62</v>
+      </c>
+      <c r="T48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -3725,20 +4142,24 @@
       <c r="Q49">
         <v>47838</v>
       </c>
+      <c r="S49" t="s">
+        <v>61</v>
+      </c>
+      <c r="T49" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q49">
+  <autoFilter ref="A1:T49" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <colorFilter dxfId="0"/>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Q42">
-      <sortCondition ref="A1:A49"/>
-    </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q49">
     <sortCondition ref="C1:C49"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>